--- a/temp_saturated_water.xlsx
+++ b/temp_saturated_water.xlsx
@@ -455,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,20 +481,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,18 +520,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -561,6 +540,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,40 +838,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O271" sqref="O271"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:XFD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -913,7 +910,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>0.01</v>
       </c>
       <c r="B3" s="6">
@@ -951,7 +948,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" s="6">
@@ -989,7 +986,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="6">
@@ -1027,7 +1024,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="6">
@@ -1065,7 +1062,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
       <c r="B7" s="6">
@@ -1103,7 +1100,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="6">
@@ -1141,7 +1138,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="6">
@@ -1179,7 +1176,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
       <c r="B10" s="6">
@@ -1217,7 +1214,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
       <c r="B11" s="6">
@@ -1255,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
       <c r="B12" s="6">
@@ -1293,7 +1290,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>10</v>
       </c>
       <c r="B13" s="6">
@@ -1331,7 +1328,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>11</v>
       </c>
       <c r="B14" s="6">
@@ -1369,7 +1366,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>12</v>
       </c>
       <c r="B15" s="6">
@@ -1407,7 +1404,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>13</v>
       </c>
       <c r="B16" s="6">
@@ -1445,7 +1442,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>14</v>
       </c>
       <c r="B17" s="6">
@@ -1483,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>15</v>
       </c>
       <c r="B18" s="6">
@@ -1521,7 +1518,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="20">
         <v>16</v>
       </c>
       <c r="B19" s="6">
@@ -1559,7 +1556,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="20">
         <v>17</v>
       </c>
       <c r="B20" s="6">
@@ -1597,7 +1594,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="20">
         <v>18</v>
       </c>
       <c r="B21" s="6">
@@ -1635,7 +1632,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="20">
         <v>19</v>
       </c>
       <c r="B22" s="6">
@@ -1673,7 +1670,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="20">
         <v>20</v>
       </c>
       <c r="B23" s="6">
@@ -1711,7 +1708,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="20">
         <v>21</v>
       </c>
       <c r="B24" s="6">
@@ -1749,7 +1746,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="20">
         <v>22</v>
       </c>
       <c r="B25" s="6">
@@ -1787,7 +1784,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="20">
         <v>23</v>
       </c>
       <c r="B26" s="6">
@@ -1825,7 +1822,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="20">
         <v>24</v>
       </c>
       <c r="B27" s="6">
@@ -1863,7 +1860,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+      <c r="A28" s="20">
         <v>25</v>
       </c>
       <c r="B28" s="6">
@@ -1901,7 +1898,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="20">
         <v>26</v>
       </c>
       <c r="B29" s="6">
@@ -1939,7 +1936,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="20">
         <v>27</v>
       </c>
       <c r="B30" s="6">
@@ -1977,7 +1974,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="20">
         <v>28</v>
       </c>
       <c r="B31" s="6">
@@ -2015,7 +2012,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="20">
         <v>29</v>
       </c>
       <c r="B32" s="6">
@@ -2053,7 +2050,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="20">
         <v>30</v>
       </c>
       <c r="B33" s="6">
@@ -2091,7 +2088,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="20">
         <v>31</v>
       </c>
       <c r="B34" s="6">
@@ -2129,7 +2126,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="20">
         <v>32</v>
       </c>
       <c r="B35" s="6">
@@ -2167,7 +2164,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="20">
         <v>33</v>
       </c>
       <c r="B36" s="6">
@@ -2205,7 +2202,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
+      <c r="A37" s="20">
         <v>34</v>
       </c>
       <c r="B37" s="6">
@@ -2243,7 +2240,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+      <c r="A38" s="20">
         <v>35</v>
       </c>
       <c r="B38" s="6">
@@ -2281,7 +2278,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="20">
         <v>36</v>
       </c>
       <c r="B39" s="6">
@@ -2319,7 +2316,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="20">
         <v>37</v>
       </c>
       <c r="B40" s="6">
@@ -2357,7 +2354,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
+      <c r="A41" s="20">
         <v>38</v>
       </c>
       <c r="B41" s="6">
@@ -2395,7 +2392,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+      <c r="A42" s="20">
         <v>39</v>
       </c>
       <c r="B42" s="6">
@@ -2433,45 +2430,45 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24">
+      <c r="A43" s="21">
         <v>40</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>7.3848999999999998E-3</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>1.00789E-3</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>19.515000000000001</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>167.52</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>2429.4</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>167.53</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>2573.5</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>2406</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>0.57240000000000002</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>8.2554999999999996</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <v>7.6830999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
+      <c r="A44" s="20">
         <v>41</v>
       </c>
       <c r="B44" s="6">
@@ -2509,7 +2506,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
+      <c r="A45" s="20">
         <v>42</v>
       </c>
       <c r="B45" s="6">
@@ -2547,7 +2544,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+      <c r="A46" s="20">
         <v>43</v>
       </c>
       <c r="B46" s="6">
@@ -2585,7 +2582,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="25">
+      <c r="A47" s="20">
         <v>44</v>
       </c>
       <c r="B47" s="6">
@@ -2623,7 +2620,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
+      <c r="A48" s="20">
         <v>45</v>
       </c>
       <c r="B48" s="6">
@@ -2661,7 +2658,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="25">
+      <c r="A49" s="20">
         <v>46</v>
       </c>
       <c r="B49" s="8">
@@ -2699,7 +2696,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
+      <c r="A50" s="20">
         <v>47</v>
       </c>
       <c r="B50" s="8">
@@ -2737,7 +2734,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="20">
         <v>48</v>
       </c>
       <c r="B51" s="8">
@@ -2775,7 +2772,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
+      <c r="A52" s="20">
         <v>49</v>
       </c>
       <c r="B52" s="8">
@@ -2813,7 +2810,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="A53" s="20">
         <v>50</v>
       </c>
       <c r="B53" s="8">
@@ -2851,7 +2848,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="25">
+      <c r="A54" s="20">
         <v>51</v>
       </c>
       <c r="B54" s="8">
@@ -2889,7 +2886,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="A55" s="20">
         <v>52</v>
       </c>
       <c r="B55" s="8">
@@ -2927,7 +2924,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
+      <c r="A56" s="20">
         <v>53</v>
       </c>
       <c r="B56" s="8">
@@ -2965,7 +2962,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="25">
+      <c r="A57" s="20">
         <v>54</v>
       </c>
       <c r="B57" s="8">
@@ -3003,7 +3000,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
+      <c r="A58" s="20">
         <v>55</v>
       </c>
       <c r="B58" s="8">
@@ -3041,7 +3038,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
+      <c r="A59" s="20">
         <v>56</v>
       </c>
       <c r="B59" s="8">
@@ -3079,7 +3076,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="25">
+      <c r="A60" s="20">
         <v>57</v>
       </c>
       <c r="B60" s="8">
@@ -3117,7 +3114,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
+      <c r="A61" s="20">
         <v>58</v>
       </c>
       <c r="B61" s="8">
@@ -3155,7 +3152,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="25">
+      <c r="A62" s="20">
         <v>59</v>
       </c>
       <c r="B62" s="8">
@@ -3193,7 +3190,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="A63" s="20">
         <v>60</v>
       </c>
       <c r="B63" s="8">
@@ -3231,7 +3228,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="20">
         <v>61</v>
       </c>
       <c r="B64" s="8">
@@ -3269,7 +3266,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="25">
+      <c r="A65" s="20">
         <v>62</v>
       </c>
       <c r="B65" s="8">
@@ -3307,7 +3304,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="25">
+      <c r="A66" s="20">
         <v>63</v>
       </c>
       <c r="B66" s="8">
@@ -3345,7 +3342,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
+      <c r="A67" s="20">
         <v>64</v>
       </c>
       <c r="B67" s="8">
@@ -3383,7 +3380,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="25">
+      <c r="A68" s="20">
         <v>65</v>
       </c>
       <c r="B68" s="8">
@@ -3421,7 +3418,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="A69" s="20">
         <v>66</v>
       </c>
       <c r="B69" s="8">
@@ -3459,7 +3456,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="25">
+      <c r="A70" s="20">
         <v>67</v>
       </c>
       <c r="B70" s="8">
@@ -3497,7 +3494,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
+      <c r="A71" s="20">
         <v>68</v>
       </c>
       <c r="B71" s="8">
@@ -3535,7 +3532,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
+      <c r="A72" s="20">
         <v>69</v>
       </c>
       <c r="B72" s="8">
@@ -3573,7 +3570,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="25">
+      <c r="A73" s="20">
         <v>70</v>
       </c>
       <c r="B73" s="8">
@@ -3611,7 +3608,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="A74" s="20">
         <v>71</v>
       </c>
       <c r="B74" s="8">
@@ -3649,7 +3646,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="25">
+      <c r="A75" s="20">
         <v>72</v>
       </c>
       <c r="B75" s="8">
@@ -3687,7 +3684,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="25">
+      <c r="A76" s="20">
         <v>73</v>
       </c>
       <c r="B76" s="8">
@@ -3725,7 +3722,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="25">
+      <c r="A77" s="20">
         <v>74</v>
       </c>
       <c r="B77" s="8">
@@ -3763,7 +3760,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="25">
+      <c r="A78" s="20">
         <v>75</v>
       </c>
       <c r="B78" s="8">
@@ -3801,7 +3798,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="25">
+      <c r="A79" s="20">
         <v>76</v>
       </c>
       <c r="B79" s="8">
@@ -3839,7 +3836,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="25">
+      <c r="A80" s="20">
         <v>77</v>
       </c>
       <c r="B80" s="8">
@@ -3877,7 +3874,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="25">
+      <c r="A81" s="20">
         <v>78</v>
       </c>
       <c r="B81" s="8">
@@ -3915,7 +3912,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="25">
+      <c r="A82" s="20">
         <v>79</v>
       </c>
       <c r="B82" s="8">
@@ -3953,45 +3950,45 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="26">
+      <c r="A83" s="21">
         <v>80</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>4.7413999999999998E-2</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>1.0290500000000001E-3</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>3.4051999999999998</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="9">
         <v>334.96</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>2481.5</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>335.01</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>2643</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="9">
         <v>2308</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="10">
         <v>1.0755999999999999</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83" s="9">
         <v>7.6111000000000004</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83" s="9">
         <v>6.5354999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="9">
+      <c r="A84" s="20">
         <v>81</v>
       </c>
       <c r="B84" s="6">
@@ -4029,7 +4026,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="A85" s="20">
         <v>82</v>
       </c>
       <c r="B85" s="6">
@@ -4067,7 +4064,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
+      <c r="A86" s="20">
         <v>83</v>
       </c>
       <c r="B86" s="6">
@@ -4105,7 +4102,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="A87" s="20">
         <v>84</v>
       </c>
       <c r="B87" s="6">
@@ -4143,7 +4140,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
+      <c r="A88" s="20">
         <v>85</v>
       </c>
       <c r="B88" s="6">
@@ -4181,7 +4178,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="A89" s="20">
         <v>86</v>
       </c>
       <c r="B89" s="6">
@@ -4219,7 +4216,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
+      <c r="A90" s="20">
         <v>87</v>
       </c>
       <c r="B90" s="6">
@@ -4257,7 +4254,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="A91" s="20">
         <v>88</v>
       </c>
       <c r="B91" s="6">
@@ -4295,7 +4292,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="A92" s="20">
         <v>89</v>
       </c>
       <c r="B92" s="6">
@@ -4333,7 +4330,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+      <c r="A93" s="20">
         <v>90</v>
       </c>
       <c r="B93" s="6">
@@ -4371,7 +4368,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+      <c r="A94" s="20">
         <v>91</v>
       </c>
       <c r="B94" s="6">
@@ -4409,7 +4406,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+      <c r="A95" s="20">
         <v>92</v>
       </c>
       <c r="B95" s="6">
@@ -4447,7 +4444,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
+      <c r="A96" s="20">
         <v>93</v>
       </c>
       <c r="B96" s="6">
@@ -4485,7 +4482,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
+      <c r="A97" s="20">
         <v>94</v>
       </c>
       <c r="B97" s="6">
@@ -4523,7 +4520,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="9">
+      <c r="A98" s="20">
         <v>95</v>
       </c>
       <c r="B98" s="6">
@@ -4561,7 +4558,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
+      <c r="A99" s="20">
         <v>96</v>
       </c>
       <c r="B99" s="6">
@@ -4599,7 +4596,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
+      <c r="A100" s="20">
         <v>97</v>
       </c>
       <c r="B100" s="6">
@@ -4637,7 +4634,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
+      <c r="A101" s="20">
         <v>98</v>
       </c>
       <c r="B101" s="6">
@@ -4675,7 +4672,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="9">
+      <c r="A102" s="20">
         <v>99</v>
       </c>
       <c r="B102" s="6">
@@ -4713,7 +4710,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="25">
+      <c r="A103" s="20">
         <v>100</v>
       </c>
       <c r="B103" s="8">
@@ -4751,7 +4748,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="25">
+      <c r="A104" s="20">
         <v>101</v>
       </c>
       <c r="B104" s="8">
@@ -4789,7 +4786,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="25">
+      <c r="A105" s="20">
         <v>102</v>
       </c>
       <c r="B105" s="8">
@@ -4827,7 +4824,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="25">
+      <c r="A106" s="20">
         <v>103</v>
       </c>
       <c r="B106" s="8">
@@ -4865,7 +4862,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="25">
+      <c r="A107" s="20">
         <v>104</v>
       </c>
       <c r="B107" s="8">
@@ -4903,7 +4900,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="25">
+      <c r="A108" s="20">
         <v>105</v>
       </c>
       <c r="B108" s="8">
@@ -4941,7 +4938,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="25">
+      <c r="A109" s="20">
         <v>106</v>
       </c>
       <c r="B109" s="8">
@@ -4979,7 +4976,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="25">
+      <c r="A110" s="20">
         <v>107</v>
       </c>
       <c r="B110" s="8">
@@ -5017,7 +5014,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="25">
+      <c r="A111" s="20">
         <v>108</v>
       </c>
       <c r="B111" s="8">
@@ -5055,7 +5052,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="25">
+      <c r="A112" s="20">
         <v>109</v>
       </c>
       <c r="B112" s="8">
@@ -5093,7 +5090,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="25">
+      <c r="A113" s="20">
         <v>110</v>
       </c>
       <c r="B113" s="8">
@@ -5131,7 +5128,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="25">
+      <c r="A114" s="20">
         <v>111</v>
       </c>
       <c r="B114" s="8">
@@ -5169,7 +5166,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="25">
+      <c r="A115" s="20">
         <v>112</v>
       </c>
       <c r="B115" s="8">
@@ -5207,7 +5204,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="25">
+      <c r="A116" s="20">
         <v>113</v>
       </c>
       <c r="B116" s="8">
@@ -5245,7 +5242,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="25">
+      <c r="A117" s="20">
         <v>114</v>
       </c>
       <c r="B117" s="8">
@@ -5283,7 +5280,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="25">
+      <c r="A118" s="20">
         <v>115</v>
       </c>
       <c r="B118" s="8">
@@ -5321,7 +5318,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="25">
+      <c r="A119" s="20">
         <v>116</v>
       </c>
       <c r="B119" s="8">
@@ -5359,7 +5356,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="25">
+      <c r="A120" s="20">
         <v>117</v>
       </c>
       <c r="B120" s="8">
@@ -5397,7 +5394,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="25">
+      <c r="A121" s="20">
         <v>118</v>
       </c>
       <c r="B121" s="8">
@@ -5435,7 +5432,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="25">
+      <c r="A122" s="20">
         <v>119</v>
       </c>
       <c r="B122" s="8">
@@ -5473,45 +5470,45 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="26">
+      <c r="A123" s="21">
         <v>120</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B123" s="10">
         <v>0.19867000000000001</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="9">
         <v>1.06033E-3</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="9">
         <v>0.89120999999999995</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="9">
         <v>503.6</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="9">
         <v>2528.8000000000002</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="9">
         <v>503.81</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="9">
         <v>2705.9</v>
       </c>
-      <c r="I123" s="10">
+      <c r="I123" s="9">
         <v>2202.1</v>
       </c>
-      <c r="J123" s="10">
+      <c r="J123" s="9">
         <v>1.5279</v>
       </c>
-      <c r="K123" s="10">
+      <c r="K123" s="9">
         <v>7.1291000000000002</v>
       </c>
-      <c r="L123" s="10">
+      <c r="L123" s="9">
         <v>5.6012000000000004</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="25">
+      <c r="A124" s="20">
         <v>121</v>
       </c>
       <c r="B124" s="6">
@@ -5549,7 +5546,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="25">
+      <c r="A125" s="20">
         <v>122</v>
       </c>
       <c r="B125" s="6">
@@ -5587,7 +5584,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="25">
+      <c r="A126" s="20">
         <v>123</v>
       </c>
       <c r="B126" s="6">
@@ -5625,7 +5622,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="25">
+      <c r="A127" s="20">
         <v>124</v>
       </c>
       <c r="B127" s="6">
@@ -5663,7 +5660,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="25">
+      <c r="A128" s="20">
         <v>125</v>
       </c>
       <c r="B128" s="6">
@@ -5701,7 +5698,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="25">
+      <c r="A129" s="20">
         <v>126</v>
       </c>
       <c r="B129" s="6">
@@ -5739,7 +5736,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="25">
+      <c r="A130" s="20">
         <v>127</v>
       </c>
       <c r="B130" s="6">
@@ -5777,7 +5774,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="25">
+      <c r="A131" s="20">
         <v>128</v>
       </c>
       <c r="B131" s="6">
@@ -5815,7 +5812,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="25">
+      <c r="A132" s="20">
         <v>129</v>
       </c>
       <c r="B132" s="6">
@@ -5853,7 +5850,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="25">
+      <c r="A133" s="20">
         <v>130</v>
       </c>
       <c r="B133" s="6">
@@ -5891,7 +5888,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="25">
+      <c r="A134" s="20">
         <v>131</v>
       </c>
       <c r="B134" s="6">
@@ -5929,7 +5926,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="25">
+      <c r="A135" s="20">
         <v>132</v>
       </c>
       <c r="B135" s="6">
@@ -5967,7 +5964,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="25">
+      <c r="A136" s="20">
         <v>133</v>
       </c>
       <c r="B136" s="6">
@@ -6005,7 +6002,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="25">
+      <c r="A137" s="20">
         <v>134</v>
       </c>
       <c r="B137" s="6">
@@ -6043,7 +6040,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="25">
+      <c r="A138" s="20">
         <v>135</v>
       </c>
       <c r="B138" s="6">
@@ -6081,7 +6078,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="25">
+      <c r="A139" s="20">
         <v>136</v>
       </c>
       <c r="B139" s="6">
@@ -6119,7 +6116,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="25">
+      <c r="A140" s="20">
         <v>137</v>
       </c>
       <c r="B140" s="6">
@@ -6157,7 +6154,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="25">
+      <c r="A141" s="20">
         <v>138</v>
       </c>
       <c r="B141" s="6">
@@ -6195,7 +6192,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="25">
+      <c r="A142" s="20">
         <v>139</v>
       </c>
       <c r="B142" s="6">
@@ -6233,7 +6230,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="25">
+      <c r="A143" s="20">
         <v>140</v>
       </c>
       <c r="B143" s="6">
@@ -6271,7 +6268,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="25">
+      <c r="A144" s="20">
         <v>141</v>
       </c>
       <c r="B144" s="6">
@@ -6309,7 +6306,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="25">
+      <c r="A145" s="20">
         <v>142</v>
       </c>
       <c r="B145" s="6">
@@ -6347,7 +6344,7 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="25">
+      <c r="A146" s="20">
         <v>143</v>
       </c>
       <c r="B146" s="6">
@@ -6385,7 +6382,7 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="25">
+      <c r="A147" s="20">
         <v>144</v>
       </c>
       <c r="B147" s="6">
@@ -6423,7 +6420,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="25">
+      <c r="A148" s="20">
         <v>145</v>
       </c>
       <c r="B148" s="6">
@@ -6461,7 +6458,7 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="25">
+      <c r="A149" s="20">
         <v>146</v>
       </c>
       <c r="B149" s="6">
@@ -6499,7 +6496,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="25">
+      <c r="A150" s="20">
         <v>147</v>
       </c>
       <c r="B150" s="6">
@@ -6537,7 +6534,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="25">
+      <c r="A151" s="20">
         <v>148</v>
       </c>
       <c r="B151" s="6">
@@ -6575,7 +6572,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="25">
+      <c r="A152" s="20">
         <v>149</v>
       </c>
       <c r="B152" s="6">
@@ -6613,7 +6610,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="25">
+      <c r="A153" s="20">
         <v>150</v>
       </c>
       <c r="B153" s="6">
@@ -6651,7 +6648,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="25">
+      <c r="A154" s="20">
         <v>151</v>
       </c>
       <c r="B154" s="6">
@@ -6689,7 +6686,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="25">
+      <c r="A155" s="20">
         <v>152</v>
       </c>
       <c r="B155" s="6">
@@ -6727,7 +6724,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="25">
+      <c r="A156" s="20">
         <v>153</v>
       </c>
       <c r="B156" s="6">
@@ -6765,7 +6762,7 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A157" s="25">
+      <c r="A157" s="20">
         <v>154</v>
       </c>
       <c r="B157" s="6">
@@ -6803,7 +6800,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A158" s="25">
+      <c r="A158" s="20">
         <v>155</v>
       </c>
       <c r="B158" s="6">
@@ -6841,7 +6838,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="25">
+      <c r="A159" s="20">
         <v>156</v>
       </c>
       <c r="B159" s="6">
@@ -6879,7 +6876,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="25">
+      <c r="A160" s="20">
         <v>157</v>
       </c>
       <c r="B160" s="6">
@@ -6917,7 +6914,7 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="25">
+      <c r="A161" s="20">
         <v>158</v>
       </c>
       <c r="B161" s="6">
@@ -6955,7 +6952,7 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="25">
+      <c r="A162" s="20">
         <v>159</v>
       </c>
       <c r="B162" s="6">
@@ -6993,45 +6990,45 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="26">
+      <c r="A163" s="21">
         <v>160</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="9">
         <v>0.61822999999999995</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="9">
         <v>1.10199E-3</v>
       </c>
-      <c r="D163" s="10">
+      <c r="D163" s="9">
         <v>0.30678</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="9">
         <v>674.79</v>
       </c>
-      <c r="F163" s="10">
+      <c r="F163" s="9">
         <v>2567.6999999999998</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="9">
         <v>675.47</v>
       </c>
-      <c r="H163" s="10">
+      <c r="H163" s="9">
         <v>2757.4</v>
       </c>
-      <c r="I163" s="10">
+      <c r="I163" s="9">
         <v>2082</v>
       </c>
-      <c r="J163" s="10">
+      <c r="J163" s="9">
         <v>1.9426000000000001</v>
       </c>
-      <c r="K163" s="10">
+      <c r="K163" s="9">
         <v>6.7491000000000003</v>
       </c>
-      <c r="L163" s="10">
+      <c r="L163" s="9">
         <v>4.8066000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="25">
+      <c r="A164" s="20">
         <v>161</v>
       </c>
       <c r="B164" s="6">
@@ -7069,7 +7066,7 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="25">
+      <c r="A165" s="20">
         <v>162</v>
       </c>
       <c r="B165" s="6">
@@ -7107,7 +7104,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="25">
+      <c r="A166" s="20">
         <v>163</v>
       </c>
       <c r="B166" s="6">
@@ -7145,7 +7142,7 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="25">
+      <c r="A167" s="20">
         <v>164</v>
       </c>
       <c r="B167" s="6">
@@ -7183,7 +7180,7 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="25">
+      <c r="A168" s="20">
         <v>165</v>
       </c>
       <c r="B168" s="6">
@@ -7221,7 +7218,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="25">
+      <c r="A169" s="20">
         <v>166</v>
       </c>
       <c r="B169" s="6">
@@ -7259,7 +7256,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="25">
+      <c r="A170" s="20">
         <v>167</v>
       </c>
       <c r="B170" s="6">
@@ -7297,7 +7294,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="25">
+      <c r="A171" s="20">
         <v>168</v>
       </c>
       <c r="B171" s="6">
@@ -7335,7 +7332,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="25">
+      <c r="A172" s="20">
         <v>169</v>
       </c>
       <c r="B172" s="6">
@@ -7373,7 +7370,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="25">
+      <c r="A173" s="20">
         <v>170</v>
       </c>
       <c r="B173" s="6">
@@ -7411,7 +7408,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="25">
+      <c r="A174" s="20">
         <v>171</v>
       </c>
       <c r="B174" s="6">
@@ -7449,7 +7446,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="25">
+      <c r="A175" s="20">
         <v>172</v>
       </c>
       <c r="B175" s="6">
@@ -7487,7 +7484,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A176" s="25">
+      <c r="A176" s="20">
         <v>173</v>
       </c>
       <c r="B176" s="6">
@@ -7525,7 +7522,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A177" s="25">
+      <c r="A177" s="20">
         <v>174</v>
       </c>
       <c r="B177" s="6">
@@ -7563,7 +7560,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A178" s="25">
+      <c r="A178" s="20">
         <v>175</v>
       </c>
       <c r="B178" s="6">
@@ -7601,7 +7598,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A179" s="25">
+      <c r="A179" s="20">
         <v>176</v>
       </c>
       <c r="B179" s="6">
@@ -7639,7 +7636,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A180" s="25">
+      <c r="A180" s="20">
         <v>177</v>
       </c>
       <c r="B180" s="6">
@@ -7677,7 +7674,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" s="25">
+      <c r="A181" s="20">
         <v>178</v>
       </c>
       <c r="B181" s="6">
@@ -7715,7 +7712,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A182" s="25">
+      <c r="A182" s="20">
         <v>179</v>
       </c>
       <c r="B182" s="6">
@@ -7753,7 +7750,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A183" s="25">
+      <c r="A183" s="20">
         <v>180</v>
       </c>
       <c r="B183" s="8">
@@ -7791,7 +7788,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A184" s="25">
+      <c r="A184" s="20">
         <v>181</v>
       </c>
       <c r="B184" s="8">
@@ -7829,7 +7826,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A185" s="25">
+      <c r="A185" s="20">
         <v>182</v>
       </c>
       <c r="B185" s="8">
@@ -7867,7 +7864,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A186" s="25">
+      <c r="A186" s="20">
         <v>183</v>
       </c>
       <c r="B186" s="8">
@@ -7905,7 +7902,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A187" s="25">
+      <c r="A187" s="20">
         <v>184</v>
       </c>
       <c r="B187" s="8">
@@ -7943,7 +7940,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A188" s="25">
+      <c r="A188" s="20">
         <v>185</v>
       </c>
       <c r="B188" s="8">
@@ -7981,7 +7978,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A189" s="25">
+      <c r="A189" s="20">
         <v>186</v>
       </c>
       <c r="B189" s="8">
@@ -8019,7 +8016,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" s="25">
+      <c r="A190" s="20">
         <v>187</v>
       </c>
       <c r="B190" s="8">
@@ -8057,7 +8054,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="25">
+      <c r="A191" s="20">
         <v>188</v>
       </c>
       <c r="B191" s="8">
@@ -8095,7 +8092,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A192" s="25">
+      <c r="A192" s="20">
         <v>189</v>
       </c>
       <c r="B192" s="8">
@@ -8133,7 +8130,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A193" s="25">
+      <c r="A193" s="20">
         <v>190</v>
       </c>
       <c r="B193" s="8">
@@ -8171,7 +8168,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A194" s="25">
+      <c r="A194" s="20">
         <v>191</v>
       </c>
       <c r="B194" s="8">
@@ -8209,7 +8206,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A195" s="25">
+      <c r="A195" s="20">
         <v>192</v>
       </c>
       <c r="B195" s="8">
@@ -8247,7 +8244,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A196" s="25">
+      <c r="A196" s="20">
         <v>193</v>
       </c>
       <c r="B196" s="8">
@@ -8285,7 +8282,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A197" s="25">
+      <c r="A197" s="20">
         <v>194</v>
       </c>
       <c r="B197" s="8">
@@ -8323,7 +8320,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A198" s="25">
+      <c r="A198" s="20">
         <v>195</v>
       </c>
       <c r="B198" s="8">
@@ -8361,7 +8358,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A199" s="25">
+      <c r="A199" s="20">
         <v>196</v>
       </c>
       <c r="B199" s="8">
@@ -8399,7 +8396,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A200" s="25">
+      <c r="A200" s="20">
         <v>197</v>
       </c>
       <c r="B200" s="8">
@@ -8437,7 +8434,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="25">
+      <c r="A201" s="20">
         <v>198</v>
       </c>
       <c r="B201" s="8">
@@ -8475,7 +8472,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" s="25">
+      <c r="A202" s="20">
         <v>199</v>
       </c>
       <c r="B202" s="8">
@@ -8513,83 +8510,83 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="26">
+      <c r="A203" s="21">
         <v>200</v>
       </c>
-      <c r="B203" s="11">
+      <c r="B203" s="10">
         <v>1.5548999999999999</v>
       </c>
-      <c r="C203" s="10">
+      <c r="C203" s="9">
         <v>1.15653E-3</v>
       </c>
-      <c r="D203" s="10">
+      <c r="D203" s="9">
         <v>0.12720999999999999</v>
       </c>
-      <c r="E203" s="10">
+      <c r="E203" s="9">
         <v>850.47</v>
       </c>
-      <c r="F203" s="10">
+      <c r="F203" s="9">
         <v>2594.1999999999998</v>
       </c>
-      <c r="G203" s="10">
+      <c r="G203" s="9">
         <v>852.27</v>
       </c>
-      <c r="H203" s="10">
+      <c r="H203" s="9">
         <v>2792</v>
       </c>
-      <c r="I203" s="10">
+      <c r="I203" s="9">
         <v>1939.7</v>
       </c>
-      <c r="J203" s="10">
+      <c r="J203" s="9">
         <v>2.3304999999999998</v>
       </c>
-      <c r="K203" s="10">
+      <c r="K203" s="9">
         <v>6.4302000000000001</v>
       </c>
-      <c r="L203" s="10">
+      <c r="L203" s="9">
         <v>4.0995999999999997</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" s="28">
+      <c r="A204" s="31">
         <v>240</v>
       </c>
-      <c r="B204" s="29">
+      <c r="B204" s="22">
         <v>3.3469000000000002</v>
       </c>
-      <c r="C204" s="29">
+      <c r="C204" s="22">
         <v>1.2294599999999999E-3</v>
       </c>
-      <c r="D204" s="29">
+      <c r="D204" s="22">
         <v>5.9705000000000001E-2</v>
       </c>
-      <c r="E204" s="29">
+      <c r="E204" s="22">
         <v>1033.5</v>
       </c>
-      <c r="F204" s="29">
+      <c r="F204" s="22">
         <v>2603.1999999999998</v>
       </c>
-      <c r="G204" s="29">
+      <c r="G204" s="22">
         <v>1037.5999999999999</v>
       </c>
-      <c r="H204" s="29">
+      <c r="H204" s="22">
         <v>2803</v>
       </c>
-      <c r="I204" s="29">
+      <c r="I204" s="22">
         <v>1765.4</v>
       </c>
-      <c r="J204" s="29">
+      <c r="J204" s="22">
         <v>2.702</v>
       </c>
-      <c r="K204" s="29">
+      <c r="K204" s="22">
         <v>6.1422999999999996</v>
       </c>
-      <c r="L204" s="29">
+      <c r="L204" s="22">
         <v>3.4403000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A205" s="25">
+      <c r="A205" s="20">
         <v>241</v>
       </c>
       <c r="B205" s="6">
@@ -8627,7 +8624,7 @@
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A206" s="25">
+      <c r="A206" s="20">
         <v>242</v>
       </c>
       <c r="B206" s="6">
@@ -8665,7 +8662,7 @@
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A207" s="25">
+      <c r="A207" s="20">
         <v>243</v>
       </c>
       <c r="B207" s="6">
@@ -8703,7 +8700,7 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="25">
+      <c r="A208" s="20">
         <v>244</v>
       </c>
       <c r="B208" s="6">
@@ -8741,7 +8738,7 @@
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="25">
+      <c r="A209" s="20">
         <v>245</v>
       </c>
       <c r="B209" s="6">
@@ -8779,7 +8776,7 @@
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A210" s="25">
+      <c r="A210" s="20">
         <v>246</v>
       </c>
       <c r="B210" s="6">
@@ -8817,7 +8814,7 @@
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A211" s="25">
+      <c r="A211" s="20">
         <v>247</v>
       </c>
       <c r="B211" s="6">
@@ -8855,7 +8852,7 @@
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A212" s="25">
+      <c r="A212" s="20">
         <v>248</v>
       </c>
       <c r="B212" s="6">
@@ -8893,7 +8890,7 @@
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="25">
+      <c r="A213" s="20">
         <v>249</v>
       </c>
       <c r="B213" s="6">
@@ -8931,7 +8928,7 @@
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="25">
+      <c r="A214" s="20">
         <v>250</v>
       </c>
       <c r="B214" s="6">
@@ -8969,7 +8966,7 @@
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="25">
+      <c r="A215" s="20">
         <v>251</v>
       </c>
       <c r="B215" s="6">
@@ -9007,7 +9004,7 @@
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A216" s="25">
+      <c r="A216" s="20">
         <v>252</v>
       </c>
       <c r="B216" s="6">
@@ -9045,7 +9042,7 @@
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A217" s="25">
+      <c r="A217" s="20">
         <v>253</v>
       </c>
       <c r="B217" s="6">
@@ -9083,7 +9080,7 @@
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A218" s="25">
+      <c r="A218" s="20">
         <v>254</v>
       </c>
       <c r="B218" s="6">
@@ -9121,7 +9118,7 @@
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="25">
+      <c r="A219" s="20">
         <v>255</v>
       </c>
       <c r="B219" s="6">
@@ -9159,7 +9156,7 @@
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="25">
+      <c r="A220" s="20">
         <v>256</v>
       </c>
       <c r="B220" s="6">
@@ -9197,7 +9194,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="25">
+      <c r="A221" s="20">
         <v>257</v>
       </c>
       <c r="B221" s="6">
@@ -9235,7 +9232,7 @@
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="25">
+      <c r="A222" s="20">
         <v>258</v>
       </c>
       <c r="B222" s="6">
@@ -9273,7 +9270,7 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A223" s="25">
+      <c r="A223" s="20">
         <v>259</v>
       </c>
       <c r="B223" s="6">
@@ -9311,7 +9308,7 @@
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A224" s="25">
+      <c r="A224" s="20">
         <v>260</v>
       </c>
       <c r="B224" s="6">
@@ -9349,7 +9346,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A225" s="25">
+      <c r="A225" s="20">
         <v>261</v>
       </c>
       <c r="B225" s="6">
@@ -9387,7 +9384,7 @@
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A226" s="25">
+      <c r="A226" s="20">
         <v>262</v>
       </c>
       <c r="B226" s="6">
@@ -9425,7 +9422,7 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A227" s="25">
+      <c r="A227" s="20">
         <v>263</v>
       </c>
       <c r="B227" s="6">
@@ -9463,7 +9460,7 @@
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A228" s="25">
+      <c r="A228" s="20">
         <v>264</v>
       </c>
       <c r="B228" s="6">
@@ -9501,7 +9498,7 @@
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A229" s="25">
+      <c r="A229" s="20">
         <v>265</v>
       </c>
       <c r="B229" s="6">
@@ -9539,7 +9536,7 @@
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A230" s="25">
+      <c r="A230" s="20">
         <v>266</v>
       </c>
       <c r="B230" s="6">
@@ -9577,7 +9574,7 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A231" s="25">
+      <c r="A231" s="20">
         <v>267</v>
       </c>
       <c r="B231" s="6">
@@ -9615,7 +9612,7 @@
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A232" s="25">
+      <c r="A232" s="20">
         <v>268</v>
       </c>
       <c r="B232" s="6">
@@ -9653,7 +9650,7 @@
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A233" s="25">
+      <c r="A233" s="20">
         <v>269</v>
       </c>
       <c r="B233" s="6">
@@ -9691,7 +9688,7 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A234" s="25">
+      <c r="A234" s="20">
         <v>270</v>
       </c>
       <c r="B234" s="6">
@@ -9729,7 +9726,7 @@
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A235" s="25">
+      <c r="A235" s="20">
         <v>271</v>
       </c>
       <c r="B235" s="6">
@@ -9767,7 +9764,7 @@
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A236" s="25">
+      <c r="A236" s="20">
         <v>272</v>
       </c>
       <c r="B236" s="6">
@@ -9805,7 +9802,7 @@
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A237" s="25">
+      <c r="A237" s="20">
         <v>273</v>
       </c>
       <c r="B237" s="6">
@@ -9843,7 +9840,7 @@
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A238" s="25">
+      <c r="A238" s="20">
         <v>274</v>
       </c>
       <c r="B238" s="6">
@@ -9881,7 +9878,7 @@
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A239" s="25">
+      <c r="A239" s="20">
         <v>275</v>
       </c>
       <c r="B239" s="6">
@@ -9919,7 +9916,7 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A240" s="25">
+      <c r="A240" s="20">
         <v>276</v>
       </c>
       <c r="B240" s="6">
@@ -9957,7 +9954,7 @@
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A241" s="25">
+      <c r="A241" s="20">
         <v>277</v>
       </c>
       <c r="B241" s="6">
@@ -9995,7 +9992,7 @@
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" s="25">
+      <c r="A242" s="20">
         <v>278</v>
       </c>
       <c r="B242" s="6">
@@ -10033,7 +10030,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="25">
+      <c r="A243" s="20">
         <v>279</v>
       </c>
       <c r="B243" s="6">
@@ -10071,45 +10068,45 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="26">
+      <c r="A244" s="21">
         <v>280</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="9">
         <v>6.4165999999999999</v>
       </c>
-      <c r="C244" s="10">
+      <c r="C244" s="9">
         <v>1.3328400000000001E-3</v>
       </c>
-      <c r="D244" s="10">
+      <c r="D244" s="9">
         <v>3.0152999999999999E-2</v>
       </c>
-      <c r="E244" s="10">
+      <c r="E244" s="9">
         <v>1228.3</v>
       </c>
-      <c r="F244" s="10">
+      <c r="F244" s="9">
         <v>2586.4</v>
       </c>
-      <c r="G244" s="10">
+      <c r="G244" s="9">
         <v>1236.9000000000001</v>
       </c>
-      <c r="H244" s="10">
+      <c r="H244" s="9">
         <v>2779.9</v>
       </c>
-      <c r="I244" s="10">
+      <c r="I244" s="9">
         <v>1543</v>
       </c>
-      <c r="J244" s="10">
+      <c r="J244" s="9">
         <v>3.0684999999999998</v>
       </c>
-      <c r="K244" s="10">
+      <c r="K244" s="9">
         <v>5.8578999999999999</v>
       </c>
-      <c r="L244" s="10">
+      <c r="L244" s="9">
         <v>2.7894000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="25">
+      <c r="A245" s="20">
         <v>281</v>
       </c>
       <c r="B245" s="6">
@@ -10147,7 +10144,7 @@
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A246" s="25">
+      <c r="A246" s="20">
         <v>282</v>
       </c>
       <c r="B246" s="6">
@@ -10185,7 +10182,7 @@
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A247" s="25">
+      <c r="A247" s="20">
         <v>283</v>
       </c>
       <c r="B247" s="6">
@@ -10223,7 +10220,7 @@
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A248" s="25">
+      <c r="A248" s="20">
         <v>284</v>
       </c>
       <c r="B248" s="6">
@@ -10261,7 +10258,7 @@
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A249" s="25">
+      <c r="A249" s="20">
         <v>285</v>
       </c>
       <c r="B249" s="6">
@@ -10299,7 +10296,7 @@
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A250" s="25">
+      <c r="A250" s="20">
         <v>286</v>
       </c>
       <c r="B250" s="6">
@@ -10337,7 +10334,7 @@
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A251" s="25">
+      <c r="A251" s="20">
         <v>287</v>
       </c>
       <c r="B251" s="6">
@@ -10375,7 +10372,7 @@
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A252" s="25">
+      <c r="A252" s="20">
         <v>288</v>
       </c>
       <c r="B252" s="6">
@@ -10413,7 +10410,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A253" s="25">
+      <c r="A253" s="20">
         <v>289</v>
       </c>
       <c r="B253" s="6">
@@ -10451,7 +10448,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="25">
+      <c r="A254" s="20">
         <v>290</v>
       </c>
       <c r="B254" s="6">
@@ -10489,7 +10486,7 @@
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A255" s="25">
+      <c r="A255" s="20">
         <v>291</v>
       </c>
       <c r="B255" s="6">
@@ -10527,7 +10524,7 @@
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A256" s="25">
+      <c r="A256" s="20">
         <v>292</v>
       </c>
       <c r="B256" s="6">
@@ -10565,7 +10562,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A257" s="25">
+      <c r="A257" s="20">
         <v>293</v>
       </c>
       <c r="B257" s="6">
@@ -10603,7 +10600,7 @@
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A258" s="25">
+      <c r="A258" s="20">
         <v>294</v>
       </c>
       <c r="B258" s="6">
@@ -10641,7 +10638,7 @@
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A259" s="25">
+      <c r="A259" s="20">
         <v>295</v>
       </c>
       <c r="B259" s="6">
@@ -10679,7 +10676,7 @@
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A260" s="25">
+      <c r="A260" s="20">
         <v>296</v>
       </c>
       <c r="B260" s="6">
@@ -10717,7 +10714,7 @@
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A261" s="25">
+      <c r="A261" s="20">
         <v>297</v>
       </c>
       <c r="B261" s="6">
@@ -10755,7 +10752,7 @@
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A262" s="25">
+      <c r="A262" s="20">
         <v>298</v>
       </c>
       <c r="B262" s="6">
@@ -10793,7 +10790,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" s="25">
+      <c r="A263" s="20">
         <v>299</v>
       </c>
       <c r="B263" s="6">
@@ -10831,7 +10828,7 @@
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" s="25">
+      <c r="A264" s="20">
         <v>300</v>
       </c>
       <c r="B264" s="6">
@@ -10869,7 +10866,7 @@
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" s="25">
+      <c r="A265" s="20">
         <v>301</v>
       </c>
       <c r="B265" s="6">
@@ -10907,7 +10904,7 @@
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="25">
+      <c r="A266" s="20">
         <v>302</v>
       </c>
       <c r="B266" s="6">
@@ -10945,7 +10942,7 @@
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" s="25">
+      <c r="A267" s="20">
         <v>303</v>
       </c>
       <c r="B267" s="6">
@@ -10983,7 +10980,7 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="25">
+      <c r="A268" s="20">
         <v>304</v>
       </c>
       <c r="B268" s="6">
@@ -11021,7 +11018,7 @@
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" s="25">
+      <c r="A269" s="20">
         <v>305</v>
       </c>
       <c r="B269" s="6">
@@ -11059,7 +11056,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" s="25">
+      <c r="A270" s="20">
         <v>306</v>
       </c>
       <c r="B270" s="6">
@@ -11097,7 +11094,7 @@
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" s="25">
+      <c r="A271" s="20">
         <v>307</v>
       </c>
       <c r="B271" s="6">
@@ -11135,7 +11132,7 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="25">
+      <c r="A272" s="20">
         <v>308</v>
       </c>
       <c r="B272" s="6">
@@ -11173,7 +11170,7 @@
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" s="25">
+      <c r="A273" s="20">
         <v>309</v>
       </c>
       <c r="B273" s="6">
@@ -11211,7 +11208,7 @@
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A274" s="25">
+      <c r="A274" s="20">
         <v>310</v>
       </c>
       <c r="B274" s="6">
@@ -11249,7 +11246,7 @@
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" s="25">
+      <c r="A275" s="20">
         <v>311</v>
       </c>
       <c r="B275" s="6">
@@ -11287,7 +11284,7 @@
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" s="25">
+      <c r="A276" s="20">
         <v>312</v>
       </c>
       <c r="B276" s="6">
@@ -11325,7 +11322,7 @@
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A277" s="25">
+      <c r="A277" s="20">
         <v>313</v>
       </c>
       <c r="B277" s="6">
@@ -11363,7 +11360,7 @@
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A278" s="25">
+      <c r="A278" s="20">
         <v>314</v>
       </c>
       <c r="B278" s="6">
@@ -11401,7 +11398,7 @@
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A279" s="25">
+      <c r="A279" s="20">
         <v>315</v>
       </c>
       <c r="B279" s="6">
@@ -11439,7 +11436,7 @@
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A280" s="25">
+      <c r="A280" s="20">
         <v>316</v>
       </c>
       <c r="B280" s="6">
@@ -11477,7 +11474,7 @@
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A281" s="25">
+      <c r="A281" s="20">
         <v>317</v>
       </c>
       <c r="B281" s="6">
@@ -11515,7 +11512,7 @@
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A282" s="25">
+      <c r="A282" s="20">
         <v>318</v>
       </c>
       <c r="B282" s="6">
@@ -11553,7 +11550,7 @@
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A283" s="25">
+      <c r="A283" s="20">
         <v>319</v>
       </c>
       <c r="B283" s="6">
@@ -11591,45 +11588,45 @@
       </c>
     </row>
     <row r="284" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="26">
+      <c r="A284" s="21">
         <v>320</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="9">
         <v>11.284000000000001</v>
       </c>
-      <c r="C284" s="10">
+      <c r="C284" s="9">
         <v>1.4990400000000001E-3</v>
       </c>
-      <c r="D284" s="10">
+      <c r="D284" s="9">
         <v>1.5471E-2</v>
       </c>
-      <c r="E284" s="10">
+      <c r="E284" s="9">
         <v>1445.3</v>
       </c>
-      <c r="F284" s="10">
+      <c r="F284" s="9">
         <v>2526</v>
       </c>
-      <c r="G284" s="10">
+      <c r="G284" s="9">
         <v>1462.2</v>
       </c>
-      <c r="H284" s="10">
+      <c r="H284" s="9">
         <v>2700.6</v>
       </c>
-      <c r="I284" s="10">
+      <c r="I284" s="9">
         <v>1238.4000000000001</v>
       </c>
-      <c r="J284" s="10">
+      <c r="J284" s="9">
         <v>3.4493999999999998</v>
       </c>
-      <c r="K284" s="10">
+      <c r="K284" s="9">
         <v>5.5372000000000003</v>
       </c>
-      <c r="L284" s="10">
+      <c r="L284" s="9">
         <v>2.0878000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A285" s="25">
+      <c r="A285" s="20">
         <v>321</v>
       </c>
       <c r="B285" s="6">
@@ -11667,7 +11664,7 @@
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A286" s="25">
+      <c r="A286" s="20">
         <v>322</v>
       </c>
       <c r="B286" s="6">
@@ -11705,7 +11702,7 @@
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A287" s="25">
+      <c r="A287" s="20">
         <v>323</v>
       </c>
       <c r="B287" s="6">
@@ -11743,7 +11740,7 @@
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A288" s="25">
+      <c r="A288" s="20">
         <v>324</v>
       </c>
       <c r="B288" s="6">
@@ -11781,7 +11778,7 @@
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A289" s="25">
+      <c r="A289" s="20">
         <v>325</v>
       </c>
       <c r="B289" s="6">
@@ -11819,7 +11816,7 @@
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A290" s="25">
+      <c r="A290" s="20">
         <v>326</v>
       </c>
       <c r="B290" s="6">
@@ -11857,7 +11854,7 @@
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A291" s="25">
+      <c r="A291" s="20">
         <v>327</v>
       </c>
       <c r="B291" s="6">
@@ -11895,7 +11892,7 @@
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A292" s="25">
+      <c r="A292" s="20">
         <v>328</v>
       </c>
       <c r="B292" s="6">
@@ -11933,7 +11930,7 @@
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A293" s="25">
+      <c r="A293" s="20">
         <v>329</v>
       </c>
       <c r="B293" s="6">
@@ -11971,7 +11968,7 @@
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A294" s="25">
+      <c r="A294" s="20">
         <v>330</v>
       </c>
       <c r="B294" s="6">
@@ -12009,7 +12006,7 @@
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A295" s="25">
+      <c r="A295" s="20">
         <v>331</v>
       </c>
       <c r="B295" s="6">
@@ -12047,7 +12044,7 @@
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A296" s="25">
+      <c r="A296" s="20">
         <v>332</v>
       </c>
       <c r="B296" s="6">
@@ -12085,7 +12082,7 @@
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A297" s="25">
+      <c r="A297" s="20">
         <v>333</v>
       </c>
       <c r="B297" s="6">
@@ -12123,7 +12120,7 @@
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A298" s="25">
+      <c r="A298" s="20">
         <v>334</v>
       </c>
       <c r="B298" s="6">
@@ -12161,7 +12158,7 @@
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A299" s="25">
+      <c r="A299" s="20">
         <v>335</v>
       </c>
       <c r="B299" s="6">
@@ -12199,7 +12196,7 @@
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A300" s="25">
+      <c r="A300" s="20">
         <v>336</v>
       </c>
       <c r="B300" s="6">
@@ -12237,7 +12234,7 @@
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A301" s="25">
+      <c r="A301" s="20">
         <v>337</v>
       </c>
       <c r="B301" s="6">
@@ -12275,7 +12272,7 @@
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A302" s="25">
+      <c r="A302" s="20">
         <v>338</v>
       </c>
       <c r="B302" s="6">
@@ -12313,7 +12310,7 @@
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A303" s="25">
+      <c r="A303" s="20">
         <v>339</v>
       </c>
       <c r="B303" s="6">
@@ -12351,7 +12348,7 @@
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A304" s="25">
+      <c r="A304" s="20">
         <v>340</v>
       </c>
       <c r="B304" s="6">
@@ -12389,7 +12386,7 @@
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A305" s="25">
+      <c r="A305" s="20">
         <v>341</v>
       </c>
       <c r="B305" s="6">
@@ -12427,7 +12424,7 @@
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A306" s="25">
+      <c r="A306" s="20">
         <v>342</v>
       </c>
       <c r="B306" s="6">
@@ -12465,7 +12462,7 @@
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A307" s="25">
+      <c r="A307" s="20">
         <v>343</v>
       </c>
       <c r="B307" s="6">
@@ -12503,7 +12500,7 @@
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A308" s="25">
+      <c r="A308" s="20">
         <v>344</v>
       </c>
       <c r="B308" s="6">
@@ -12541,7 +12538,7 @@
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A309" s="25">
+      <c r="A309" s="20">
         <v>345</v>
       </c>
       <c r="B309" s="6">
@@ -12579,7 +12576,7 @@
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A310" s="25">
+      <c r="A310" s="20">
         <v>346</v>
       </c>
       <c r="B310" s="6">
@@ -12617,7 +12614,7 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A311" s="25">
+      <c r="A311" s="20">
         <v>347</v>
       </c>
       <c r="B311" s="6">
@@ -12655,7 +12652,7 @@
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A312" s="25">
+      <c r="A312" s="20">
         <v>348</v>
       </c>
       <c r="B312" s="6">
@@ -12693,7 +12690,7 @@
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A313" s="25">
+      <c r="A313" s="20">
         <v>349</v>
       </c>
       <c r="B313" s="6">
@@ -12731,7 +12728,7 @@
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A314" s="25">
+      <c r="A314" s="20">
         <v>350</v>
       </c>
       <c r="B314" s="6">
@@ -12769,7 +12766,7 @@
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A315" s="25">
+      <c r="A315" s="20">
         <v>351</v>
       </c>
       <c r="B315" s="6">
@@ -12807,7 +12804,7 @@
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A316" s="25">
+      <c r="A316" s="20">
         <v>352</v>
       </c>
       <c r="B316" s="6">
@@ -12845,7 +12842,7 @@
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A317" s="25">
+      <c r="A317" s="20">
         <v>353</v>
       </c>
       <c r="B317" s="6">
@@ -12883,7 +12880,7 @@
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A318" s="25">
+      <c r="A318" s="20">
         <v>354</v>
       </c>
       <c r="B318" s="6">
@@ -12921,7 +12918,7 @@
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A319" s="25">
+      <c r="A319" s="20">
         <v>355</v>
       </c>
       <c r="B319" s="6">
@@ -12959,7 +12956,7 @@
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A320" s="25">
+      <c r="A320" s="20">
         <v>356</v>
       </c>
       <c r="B320" s="6">
@@ -12997,7 +12994,7 @@
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A321" s="25">
+      <c r="A321" s="20">
         <v>357</v>
       </c>
       <c r="B321" s="6">
@@ -13035,7 +13032,7 @@
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A322" s="25">
+      <c r="A322" s="20">
         <v>358</v>
       </c>
       <c r="B322" s="6">
@@ -13073,7 +13070,7 @@
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A323" s="25">
+      <c r="A323" s="20">
         <v>359</v>
       </c>
       <c r="B323" s="6">
@@ -13111,45 +13108,45 @@
       </c>
     </row>
     <row r="324" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="26">
+      <c r="A324" s="21">
         <v>360</v>
       </c>
-      <c r="B324" s="10">
+      <c r="B324" s="9">
         <v>18.666</v>
       </c>
-      <c r="C324" s="10">
+      <c r="C324" s="9">
         <v>1.8954099999999999E-3</v>
       </c>
-      <c r="D324" s="10">
+      <c r="D324" s="9">
         <v>6.9493000000000003E-3</v>
       </c>
-      <c r="E324" s="10">
+      <c r="E324" s="9">
         <v>1726.3</v>
       </c>
-      <c r="F324" s="10">
+      <c r="F324" s="9">
         <v>2351.8000000000002</v>
       </c>
-      <c r="G324" s="10">
+      <c r="G324" s="9">
         <v>1761.7</v>
       </c>
-      <c r="H324" s="10">
+      <c r="H324" s="9">
         <v>2481.5</v>
       </c>
-      <c r="I324" s="11">
+      <c r="I324" s="10">
         <v>719.8</v>
       </c>
-      <c r="J324" s="10">
+      <c r="J324" s="9">
         <v>3.9167000000000001</v>
       </c>
-      <c r="K324" s="10">
+      <c r="K324" s="9">
         <v>5.0536000000000003</v>
       </c>
-      <c r="L324" s="10">
+      <c r="L324" s="9">
         <v>1.1369</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A325" s="25">
+      <c r="A325" s="20">
         <v>361</v>
       </c>
       <c r="B325" s="6">
@@ -13187,7 +13184,7 @@
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A326" s="25">
+      <c r="A326" s="20">
         <v>362</v>
       </c>
       <c r="B326" s="6">
@@ -13225,7 +13222,7 @@
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A327" s="25">
+      <c r="A327" s="20">
         <v>363</v>
       </c>
       <c r="B327" s="6">
@@ -13263,7 +13260,7 @@
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A328" s="25">
+      <c r="A328" s="20">
         <v>364</v>
       </c>
       <c r="B328" s="6">
@@ -13301,7 +13298,7 @@
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A329" s="25">
+      <c r="A329" s="20">
         <v>365</v>
       </c>
       <c r="B329" s="6">
@@ -13339,7 +13336,7 @@
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A330" s="25">
+      <c r="A330" s="20">
         <v>366</v>
       </c>
       <c r="B330" s="6">
@@ -13377,7 +13374,7 @@
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A331" s="25">
+      <c r="A331" s="20">
         <v>367</v>
       </c>
       <c r="B331" s="6">
@@ -13415,7 +13412,7 @@
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A332" s="25">
+      <c r="A332" s="20">
         <v>368</v>
       </c>
       <c r="B332" s="6">
@@ -13453,7 +13450,7 @@
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A333" s="25">
+      <c r="A333" s="20">
         <v>369</v>
       </c>
       <c r="B333" s="6">
@@ -13491,7 +13488,7 @@
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A334" s="25">
+      <c r="A334" s="20">
         <v>370</v>
       </c>
       <c r="B334" s="6">
@@ -13529,7 +13526,7 @@
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A335" s="25">
+      <c r="A335" s="20">
         <v>371</v>
       </c>
       <c r="B335" s="6">
@@ -13567,7 +13564,7 @@
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A336" s="25">
+      <c r="A336" s="20">
         <v>372</v>
       </c>
       <c r="B336" s="6">
@@ -13605,58 +13602,58 @@
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A337" s="25">
+      <c r="A337" s="20">
         <v>373</v>
       </c>
       <c r="B337" s="6">
         <v>21.814</v>
       </c>
-      <c r="C337" s="30">
+      <c r="C337" s="23">
         <v>2.5083000000000002E-3</v>
       </c>
-      <c r="D337" s="32">
+      <c r="D337" s="25">
         <v>4.045E-3</v>
       </c>
-      <c r="E337" s="32">
+      <c r="E337" s="25">
         <v>1915</v>
       </c>
-      <c r="F337" s="32">
+      <c r="F337" s="25">
         <v>2141.6</v>
       </c>
-      <c r="G337" s="32">
+      <c r="G337" s="25">
         <v>1969.7</v>
       </c>
-      <c r="H337" s="32">
+      <c r="H337" s="25">
         <v>2229.8000000000002</v>
       </c>
-      <c r="I337" s="34" t="s">
+      <c r="I337" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J337" s="32">
+      <c r="J337" s="25">
         <v>4.2308000000000003</v>
       </c>
-      <c r="K337" s="32">
+      <c r="K337" s="25">
         <v>4.6334</v>
       </c>
-      <c r="L337" s="34" t="s">
+      <c r="L337" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="27"/>
-      <c r="B338" s="10">
+      <c r="A338" s="32"/>
+      <c r="B338" s="9">
         <v>22.064</v>
       </c>
-      <c r="C338" s="31"/>
-      <c r="D338" s="33"/>
-      <c r="E338" s="33"/>
-      <c r="F338" s="33"/>
-      <c r="G338" s="33"/>
-      <c r="H338" s="33"/>
-      <c r="I338" s="35"/>
-      <c r="J338" s="33"/>
-      <c r="K338" s="33"/>
-      <c r="L338" s="35"/>
+      <c r="C338" s="24"/>
+      <c r="D338" s="26"/>
+      <c r="E338" s="26"/>
+      <c r="F338" s="26"/>
+      <c r="G338" s="26"/>
+      <c r="H338" s="26"/>
+      <c r="I338" s="28"/>
+      <c r="J338" s="26"/>
+      <c r="K338" s="26"/>
+      <c r="L338" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
